--- a/PRIXPS.xlsx
+++ b/PRIXPS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1602A2-7DEA-48F1-B862-A364BEFA37F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427A2991-5440-4EF0-837C-8210C4F9A97D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Bref Triggers Cuisine 500ml</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>Item Name</t>
+  </si>
+  <si>
+    <t>2940803</t>
+  </si>
+  <si>
+    <t>LE CHAT ROSE 1L</t>
+  </si>
+  <si>
+    <t>LE CHAT power gel 4L</t>
   </si>
 </sst>
 </file>
@@ -178,9 +187,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,6 +949,34 @@
         <v>378</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2940804</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1195</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PRIXPS.xlsx
+++ b/PRIXPS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427A2991-5440-4EF0-837C-8210C4F9A97D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B9669C-62C7-4C64-9F96-F5A686653074}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D35"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +971,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="1">
         <v>1195</v>

--- a/PRIXPS.xlsx
+++ b/PRIXPS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B9669C-62C7-4C64-9F96-F5A686653074}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FB986C-8298-4133-9035-F645E40820AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="1">
-        <v>303</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="1">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="1">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="1">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">

--- a/PRIXPS.xlsx
+++ b/PRIXPS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FB986C-8298-4133-9035-F645E40820AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE30916-2A40-48EF-B84E-EDAD52EC21B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4425" windowHeight="6120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Bref Triggers Cuisine 500ml</t>
   </si>
@@ -137,19 +137,27 @@
   </si>
   <si>
     <t>LE CHAT power gel 4L</t>
+  </si>
+  <si>
+    <t>Pril Power blue 650 ml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -183,19 +191,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6F52A40A-C61A-4FA2-8D0E-8220DC4995F7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,6 +999,20 @@
         <v>1195</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2943549</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PRIXPS.xlsx
+++ b/PRIXPS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE30916-2A40-48EF-B84E-EDAD52EC21B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778210AF-5EB4-4738-BAFF-8E7D4A0B11D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4425" windowHeight="6120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Bref Triggers Cuisine 500ml</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>Pril Power blue 650 ml</t>
+  </si>
+  <si>
+    <t>2970482</t>
+  </si>
+  <si>
+    <t>Pril Isis Ultra Power 650ml</t>
+  </si>
+  <si>
+    <t>2970224</t>
+  </si>
+  <si>
+    <t>Pril Isis Ultra Power 1.25L</t>
   </si>
 </sst>
 </file>
@@ -168,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -191,29 +203,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,17 +1000,45 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>2943549</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>12</v>
       </c>
       <c r="D36" s="1">
         <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/PRIXPS.xlsx
+++ b/PRIXPS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778210AF-5EB4-4738-BAFF-8E7D4A0B11D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA81564A-686C-4433-A03C-859C74E9A308}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +912,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="1">
-        <v>130</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">

--- a/PRIXPS.xlsx
+++ b/PRIXPS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA81564A-686C-4433-A03C-859C74E9A308}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E6B6CA-C81C-4115-88A8-6AF096288289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Bref Triggers Cuisine 500ml</t>
   </si>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>570</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1014,17 +1014,17 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>40</v>
+      <c r="A37">
+        <v>2952095</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>168</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,6 +1039,20 @@
       </c>
       <c r="D38" s="1">
         <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="1">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/PRIXPS.xlsx
+++ b/PRIXPS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E6B6CA-C81C-4115-88A8-6AF096288289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7786A160-5A79-4B26-972B-E75057214C0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">

--- a/PRIXPS.xlsx
+++ b/PRIXPS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7786A160-5A79-4B26-972B-E75057214C0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630A2CC6-4A68-49E2-8DF0-3591E5ACA092}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Bref Triggers Cuisine 500ml</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Bref 900ml javel disinf</t>
   </si>
   <si>
-    <t xml:space="preserve">ISIS LS gel 900 ml Citron Harmonie  RE   </t>
-  </si>
-  <si>
     <t>ISIS LS powder 2,5 bag Citron Limitless</t>
   </si>
   <si>
@@ -55,12 +52,6 @@
     <t>Le Chat LS 2,5kg bag Adv21</t>
   </si>
   <si>
-    <t xml:space="preserve">ISIS HS POWDER ANTIBACTERIAL 750GR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISIS HS POWDER ANTIBACTERIAL 300GR </t>
-  </si>
-  <si>
     <t>ISIS HS POWDER SDM 300GR LIMITLESS</t>
   </si>
   <si>
@@ -112,46 +103,76 @@
     <t>ISIS LS bag 2,5Kg Citron Limitless</t>
   </si>
   <si>
-    <t>Le Chat Reg 2,5L FRESCO</t>
-  </si>
-  <si>
-    <t>Le Chat 1L FRESCO RL</t>
-  </si>
-  <si>
     <t>PRIXUN</t>
   </si>
   <si>
     <t>NBRUN</t>
   </si>
   <si>
-    <t>Item ID</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>2940803</t>
-  </si>
-  <si>
-    <t>LE CHAT ROSE 1L</t>
-  </si>
-  <si>
-    <t>LE CHAT power gel 4L</t>
-  </si>
-  <si>
-    <t>Pril Power blue 650 ml</t>
-  </si>
-  <si>
-    <t>2970482</t>
-  </si>
-  <si>
-    <t>Pril Isis Ultra Power 650ml</t>
-  </si>
-  <si>
-    <t>2970224</t>
-  </si>
-  <si>
-    <t>Pril Isis Ultra Power 1.25L</t>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>ItemNameE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISIS LS gel 900 ml Citron Harmonie  RE                                                                                        </t>
+  </si>
+  <si>
+    <t>ISIS HS POWDER ANTIBACTERIAL 750GR LIMITLESS</t>
+  </si>
+  <si>
+    <t>ISIS HS POWDER ANTIBACTERIAL 300GR LIMITLESS</t>
+  </si>
+  <si>
+    <t>Le Chat 2.5L fresco RL</t>
+  </si>
+  <si>
+    <t>Le Chat 1L fresco RL</t>
+  </si>
+  <si>
+    <t>Le Chat Rose 1L</t>
+  </si>
+  <si>
+    <t>Le Chat 4L fresco RL</t>
+  </si>
+  <si>
+    <t>Pril ISIS Antibactérien 650ML  Lemon</t>
+  </si>
+  <si>
+    <t>Le Chat Rose 2,5L ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat Regular 2,5L ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat SDM 2,5L ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat Regular 1L ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat Rose 1L ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat Regular 4L ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat 2,5kg bag ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat HS Gel 1L ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat HS 300gr ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat HS 750gr ADV23</t>
+  </si>
+  <si>
+    <t>Pril Isis ultra power 1.25L</t>
+  </si>
+  <si>
+    <t>Pril Isis ultra power 650ml</t>
   </si>
 </sst>
 </file>
@@ -495,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,17 +531,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,7 +619,7 @@
         <v>2766729</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -612,7 +633,7 @@
         <v>2766835</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -626,7 +647,7 @@
         <v>2791901</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -640,7 +661,7 @@
         <v>2806713</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -654,7 +675,7 @@
         <v>2806719</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -668,7 +689,7 @@
         <v>2817870</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -682,7 +703,7 @@
         <v>2820870</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -696,7 +717,7 @@
         <v>2821686</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1">
         <v>25</v>
@@ -710,7 +731,7 @@
         <v>2823409</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>25</v>
@@ -724,7 +745,7 @@
         <v>2823411</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
         <v>12</v>
@@ -738,7 +759,7 @@
         <v>2829475</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -752,7 +773,7 @@
         <v>2830113</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
         <v>25</v>
@@ -766,7 +787,7 @@
         <v>2830114</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <v>12</v>
@@ -780,7 +801,7 @@
         <v>2845955</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1">
         <v>12</v>
@@ -794,7 +815,7 @@
         <v>2845956</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -808,7 +829,7 @@
         <v>2845959</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1">
         <v>12</v>
@@ -822,7 +843,7 @@
         <v>2859185</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
@@ -836,7 +857,7 @@
         <v>2860119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -850,7 +871,7 @@
         <v>2875891</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
         <v>25</v>
@@ -864,7 +885,7 @@
         <v>2875892</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1">
         <v>12</v>
@@ -878,7 +899,7 @@
         <v>2875893</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1">
         <v>8</v>
@@ -892,7 +913,7 @@
         <v>2876884</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1">
         <v>4</v>
@@ -906,7 +927,7 @@
         <v>2910278</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1">
         <v>12</v>
@@ -920,7 +941,7 @@
         <v>2917788</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1">
         <v>4</v>
@@ -934,7 +955,7 @@
         <v>2918203</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1">
         <v>4</v>
@@ -948,7 +969,7 @@
         <v>2922764</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
         <v>4</v>
@@ -962,7 +983,7 @@
         <v>2922795</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
@@ -972,11 +993,11 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="2">
+        <v>2940803</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
@@ -990,7 +1011,7 @@
         <v>2940804</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
@@ -1004,7 +1025,7 @@
         <v>2943549</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1">
         <v>12</v>
@@ -1015,43 +1036,169 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2952095</v>
+        <v>2951994</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1">
         <v>1195</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>42</v>
+      <c r="A38" s="1">
+        <v>2952074</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1">
         <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>40</v>
+      <c r="A39" s="1">
+        <v>2952081</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>2952089</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>2952090</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>2952095</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>2958928</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>2958931</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2958932</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1">
+        <v>25</v>
+      </c>
+      <c r="D45" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>2958933</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="1">
         <v>12</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D46" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>2970224</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="1">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2970482</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="1">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1">
         <v>168</v>
       </c>
     </row>

--- a/PRIXPS.xlsx
+++ b/PRIXPS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630A2CC6-4A68-49E2-8DF0-3591E5ACA092}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B2CDC2-2CCE-486D-B9FE-B653F53EDCBD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D48"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>1195</v>
+        <v>815</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="1">
-        <v>284</v>
+        <v>815</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="1">
-        <v>168</v>
+        <v>815</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">

--- a/PRIXPS.xlsx
+++ b/PRIXPS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B2CDC2-2CCE-486D-B9FE-B653F53EDCBD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA298B4-81AF-4D5F-A813-DDE33E8DD6A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>178</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>178</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/PRIXPS.xlsx
+++ b/PRIXPS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA298B4-81AF-4D5F-A813-DDE33E8DD6A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B43166-B957-4E83-AB16-235B254777FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1157,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="1">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">

--- a/PRIXPS.xlsx
+++ b/PRIXPS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B43166-B957-4E83-AB16-235B254777FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35815A11-56C0-4002-AFA8-ACA75391BF50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="1">
-        <v>1195</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
